--- a/reports/DL-GTPL-Cabnet-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Cabnet-Private-Limited.xlsx
@@ -1324,19 +1324,19 @@
         <v>41</v>
       </c>
       <c r="N15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O15" t="s">
         <v>41</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q15" t="s">
         <v>41</v>
       </c>
       <c r="R15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s">
         <v>41</v>
@@ -1363,7 +1363,7 @@
         <v>41</v>
       </c>
       <c r="AA15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB15" t="s">
         <v>41</v>

--- a/reports/DL-GTPL-Cabnet-Private-Limited.xlsx
+++ b/reports/DL-GTPL-Cabnet-Private-Limited.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="90">
   <si>
     <t>Performance Report</t>
   </si>
@@ -28,7 +28,7 @@
     <t>A =&gt; Absent</t>
   </si>
   <si>
-    <t>Auguest Report</t>
+    <t>October Report</t>
   </si>
   <si>
     <t>L =&gt; Late</t>
@@ -40,97 +40,109 @@
     <t>Employee Name</t>
   </si>
   <si>
-    <t>01/08/2020</t>
-  </si>
-  <si>
-    <t>02/08/2020</t>
-  </si>
-  <si>
-    <t>03/08/2020</t>
-  </si>
-  <si>
-    <t>04/08/2020</t>
-  </si>
-  <si>
-    <t>05/08/2020</t>
-  </si>
-  <si>
-    <t>06/08/2020</t>
-  </si>
-  <si>
-    <t>07/08/2020</t>
-  </si>
-  <si>
-    <t>08/08/2020</t>
-  </si>
-  <si>
-    <t>09/08/2020</t>
-  </si>
-  <si>
-    <t>10/08/2020</t>
-  </si>
-  <si>
-    <t>11/08/2020</t>
-  </si>
-  <si>
-    <t>12/08/2020</t>
-  </si>
-  <si>
-    <t>13/08/2020</t>
-  </si>
-  <si>
-    <t>14/08/2020</t>
-  </si>
-  <si>
-    <t>15/08/2020</t>
-  </si>
-  <si>
-    <t>16/08/2020</t>
-  </si>
-  <si>
-    <t>17/08/2020</t>
-  </si>
-  <si>
-    <t>18/08/2020</t>
-  </si>
-  <si>
-    <t>19/08/2020</t>
-  </si>
-  <si>
-    <t>20/08/2020</t>
-  </si>
-  <si>
-    <t>21/08/2020</t>
-  </si>
-  <si>
-    <t>22/08/2020</t>
-  </si>
-  <si>
-    <t>23/08/2020</t>
-  </si>
-  <si>
-    <t>24/08/2020</t>
-  </si>
-  <si>
-    <t>25/08/2020</t>
-  </si>
-  <si>
-    <t>26/08/2020</t>
-  </si>
-  <si>
-    <t>27/08/2020</t>
-  </si>
-  <si>
-    <t>28/08/2020</t>
-  </si>
-  <si>
-    <t>29/08/2020</t>
-  </si>
-  <si>
-    <t>30/08/2020</t>
-  </si>
-  <si>
-    <t>31/08/2020</t>
+    <t>01/10/2020</t>
+  </si>
+  <si>
+    <t>02/10/2020</t>
+  </si>
+  <si>
+    <t>03/10/2020</t>
+  </si>
+  <si>
+    <t>04/10/2020</t>
+  </si>
+  <si>
+    <t>05/10/2020</t>
+  </si>
+  <si>
+    <t>06/10/2020</t>
+  </si>
+  <si>
+    <t>07/10/2020</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>09/10/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>11/10/2020</t>
+  </si>
+  <si>
+    <t>12/10/2020</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>17/10/2020</t>
+  </si>
+  <si>
+    <t>18/10/2020</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>24/10/2020</t>
+  </si>
+  <si>
+    <t>25/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>29/10/2020</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>31/10/2020</t>
+  </si>
+  <si>
+    <t>Working Day</t>
+  </si>
+  <si>
+    <t>Memo Issue</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Absent</t>
   </si>
   <si>
     <t>Akshaykumar Jayeshbhai Latwala</t>
@@ -139,22 +151,22 @@
     <t>A</t>
   </si>
   <si>
-    <t>Lokeshkumar Rameshchandra Andel</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Lokesh Ramesh Chandra Andel</t>
   </si>
   <si>
     <t>L</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Jitendra Vitthalrao Shere</t>
   </si>
   <si>
     <t>Chandraprakash Sureshchand Jain</t>
   </si>
   <si>
-    <t>Patel Sharif</t>
+    <t>Sharif Taher Patel</t>
   </si>
   <si>
     <t>Zankhana Shardulsinh Mahida</t>
@@ -163,16 +175,112 @@
     <t>Manish Bhikhabhai Savani</t>
   </si>
   <si>
+    <t>Chirag Balubhai Bhesara</t>
+  </si>
+  <si>
+    <t>Mo. Aslam Mo. Hanif Shaikh</t>
+  </si>
+  <si>
+    <t>Pravin Nanabhai Patil</t>
+  </si>
+  <si>
+    <t>Binodkumar Raghunath Shav</t>
+  </si>
+  <si>
+    <t>Rahulkumar Rameshbhai Panchal</t>
+  </si>
+  <si>
+    <t>Rakeshbhai Yuvrajbhai Bhamre</t>
+  </si>
+  <si>
+    <t>Minesh Chhaganbhai Hatiya</t>
+  </si>
+  <si>
+    <t>Ishwar Bavnjibhai Pitroda</t>
+  </si>
+  <si>
+    <t>Anilbhai Ambarbhai Nikum</t>
+  </si>
+  <si>
+    <t>Nilesh Balubhai Vanjari</t>
+  </si>
+  <si>
+    <t>Sanjeev Hiraman Bagale</t>
+  </si>
+  <si>
+    <t>Sabir Ilyas Pathan</t>
+  </si>
+  <si>
+    <t>Sajidkhan Abdulmajid Ghori</t>
+  </si>
+  <si>
+    <t>Vipin Raysahab Chauhan</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
-    <t>Bhesara Chirag Balubhai</t>
-  </si>
-  <si>
-    <t>Shaikh Moaslam</t>
-  </si>
-  <si>
-    <t>Pravin Nana Patil</t>
+    <t>Jayeshbhai Anilbhai Gamit</t>
+  </si>
+  <si>
+    <t>Bhagwan Tukaram Ghode</t>
+  </si>
+  <si>
+    <t>Yunus Sattar Shaikh</t>
+  </si>
+  <si>
+    <t>Prakash Bhikhanrao Patil</t>
+  </si>
+  <si>
+    <t>Pradhuman Kantibhai Patel</t>
+  </si>
+  <si>
+    <t>Yash Ranjitbhai Pathiyar</t>
+  </si>
+  <si>
+    <t>RAJIVKUMAR ARVINDBHAI PANDIT</t>
+  </si>
+  <si>
+    <t>Nayan Pravinbhai Patil</t>
+  </si>
+  <si>
+    <t>Krupa Jagdishbhai Vala</t>
+  </si>
+  <si>
+    <t>Monikaben Amratbhai Mistri</t>
+  </si>
+  <si>
+    <t>Umeshkumar Nirdhan Mahto</t>
+  </si>
+  <si>
+    <t>Bhavikaben Chandubhai Modi</t>
+  </si>
+  <si>
+    <t>Dharmesh Jagdishbhai Andani</t>
+  </si>
+  <si>
+    <t>Mahmad Aslam Mahmad Iqbal Shah</t>
+  </si>
+  <si>
+    <t>Jitendra Jainarayan Sharma</t>
+  </si>
+  <si>
+    <t>Bipinbhai Jayantilal Modi</t>
+  </si>
+  <si>
+    <t>Devendrakumar Harinath Pandey</t>
+  </si>
+  <si>
+    <t>Shivam Jitendrabhai Sukhiyaji</t>
+  </si>
+  <si>
+    <t>Nikunj Natvarlal Patel</t>
+  </si>
+  <si>
+    <t>Arvind Jayantibhai Kathrotiya</t>
+  </si>
+  <si>
+    <t>Rajan Kumar Pal</t>
   </si>
 </sst>
 </file>
@@ -549,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AK50"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
@@ -597,7 +705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -694,985 +802,4637 @@
       <c r="AF8" t="s">
         <v>39</v>
       </c>
+      <c r="AH8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF9" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH9">
+        <v>8</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF10" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF11" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF12" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH12">
+        <v>8</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF13" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH13">
+        <v>7</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF14" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF15" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF16" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH16">
+        <v>8</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF17" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH17">
+        <v>9</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>9</v>
+      </c>
+      <c r="AK17">
+        <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K18" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="N18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Q18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Y18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="Z18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AF18" t="s">
-        <v>41</v>
+        <v>45</v>
+      </c>
+      <c r="AH18">
+        <v>9</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>9</v>
+      </c>
+      <c r="AK18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" t="s">
+        <v>45</v>
+      </c>
+      <c r="U19" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" t="s">
+        <v>45</v>
+      </c>
+      <c r="X19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH19">
+        <v>3</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>46</v>
+      </c>
+      <c r="L20" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>45</v>
+      </c>
+      <c r="R20" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" t="s">
+        <v>45</v>
+      </c>
+      <c r="U20" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" t="s">
+        <v>45</v>
+      </c>
+      <c r="W20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH20">
+        <v>8</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH21">
+        <v>9</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>45</v>
+      </c>
+      <c r="R22" t="s">
+        <v>45</v>
+      </c>
+      <c r="S22" t="s">
+        <v>45</v>
+      </c>
+      <c r="T22" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" t="s">
+        <v>45</v>
+      </c>
+      <c r="V22" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH22">
+        <v>8</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>45</v>
+      </c>
+      <c r="R23" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W23" t="s">
+        <v>45</v>
+      </c>
+      <c r="X23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH23">
+        <v>10</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>10</v>
+      </c>
+      <c r="AK23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH24">
+        <v>8</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M25" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R25" t="s">
+        <v>45</v>
+      </c>
+      <c r="S25" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25" t="s">
+        <v>45</v>
+      </c>
+      <c r="U25" t="s">
+        <v>45</v>
+      </c>
+      <c r="V25" t="s">
+        <v>45</v>
+      </c>
+      <c r="W25" t="s">
+        <v>45</v>
+      </c>
+      <c r="X25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH25">
+        <v>9</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>45</v>
+      </c>
+      <c r="R26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26" t="s">
+        <v>45</v>
+      </c>
+      <c r="T26" t="s">
+        <v>45</v>
+      </c>
+      <c r="U26" t="s">
+        <v>45</v>
+      </c>
+      <c r="V26" t="s">
+        <v>45</v>
+      </c>
+      <c r="W26" t="s">
+        <v>45</v>
+      </c>
+      <c r="X26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH26">
+        <v>9</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" t="s">
+        <v>45</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" t="s">
+        <v>45</v>
+      </c>
+      <c r="V27" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27" t="s">
+        <v>45</v>
+      </c>
+      <c r="X27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH27">
+        <v>6</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>6</v>
+      </c>
+      <c r="AK27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" t="s">
+        <v>45</v>
+      </c>
+      <c r="M28" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>45</v>
+      </c>
+      <c r="R28" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" t="s">
+        <v>45</v>
+      </c>
+      <c r="T28" t="s">
+        <v>45</v>
+      </c>
+      <c r="U28" t="s">
+        <v>45</v>
+      </c>
+      <c r="V28" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" t="s">
+        <v>45</v>
+      </c>
+      <c r="X28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH28">
+        <v>9</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>68</v>
+      </c>
+      <c r="K29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>45</v>
+      </c>
+      <c r="R29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" t="s">
+        <v>45</v>
+      </c>
+      <c r="T29" t="s">
+        <v>45</v>
+      </c>
+      <c r="U29" t="s">
+        <v>45</v>
+      </c>
+      <c r="V29" t="s">
+        <v>45</v>
+      </c>
+      <c r="W29" t="s">
+        <v>45</v>
+      </c>
+      <c r="X29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH29">
+        <v>9</v>
+      </c>
+      <c r="AI29">
+        <v>9</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+      <c r="M30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S30" t="s">
+        <v>45</v>
+      </c>
+      <c r="T30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W30" t="s">
+        <v>45</v>
+      </c>
+      <c r="X30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH30">
+        <v>9</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>9</v>
+      </c>
+      <c r="AK30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" t="s">
+        <v>45</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U31" t="s">
+        <v>45</v>
+      </c>
+      <c r="V31" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31" t="s">
+        <v>45</v>
+      </c>
+      <c r="X31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH31">
+        <v>10</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>10</v>
+      </c>
+      <c r="AK31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>48</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" t="s">
+        <v>45</v>
+      </c>
+      <c r="N32" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>45</v>
+      </c>
+      <c r="R32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" t="s">
+        <v>45</v>
+      </c>
+      <c r="T32" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32" t="s">
+        <v>45</v>
+      </c>
+      <c r="V32" t="s">
+        <v>45</v>
+      </c>
+      <c r="W32" t="s">
+        <v>45</v>
+      </c>
+      <c r="X32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH32">
+        <v>7</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>7</v>
+      </c>
+      <c r="AK32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s">
+        <v>46</v>
+      </c>
+      <c r="L33" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="N33" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" t="s">
+        <v>45</v>
+      </c>
+      <c r="P33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" t="s">
+        <v>45</v>
+      </c>
+      <c r="W33" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH33">
+        <v>9</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" t="s">
+        <v>45</v>
+      </c>
+      <c r="P34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>45</v>
+      </c>
+      <c r="R34" t="s">
+        <v>45</v>
+      </c>
+      <c r="S34" t="s">
+        <v>45</v>
+      </c>
+      <c r="T34" t="s">
+        <v>45</v>
+      </c>
+      <c r="U34" t="s">
+        <v>45</v>
+      </c>
+      <c r="V34" t="s">
+        <v>45</v>
+      </c>
+      <c r="W34" t="s">
+        <v>45</v>
+      </c>
+      <c r="X34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH34">
+        <v>8</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" t="s">
+        <v>45</v>
+      </c>
+      <c r="L35" t="s">
+        <v>45</v>
+      </c>
+      <c r="M35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" t="s">
+        <v>45</v>
+      </c>
+      <c r="P35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>45</v>
+      </c>
+      <c r="R35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S35" t="s">
+        <v>45</v>
+      </c>
+      <c r="T35" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" t="s">
+        <v>45</v>
+      </c>
+      <c r="V35" t="s">
+        <v>45</v>
+      </c>
+      <c r="W35" t="s">
+        <v>45</v>
+      </c>
+      <c r="X35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH35">
+        <v>7</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" t="s">
+        <v>45</v>
+      </c>
+      <c r="P36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" t="s">
+        <v>45</v>
+      </c>
+      <c r="X36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH36">
+        <v>9</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" t="s">
+        <v>45</v>
+      </c>
+      <c r="L37" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" t="s">
+        <v>45</v>
+      </c>
+      <c r="N37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>45</v>
+      </c>
+      <c r="R37" t="s">
+        <v>45</v>
+      </c>
+      <c r="S37" t="s">
+        <v>45</v>
+      </c>
+      <c r="T37" t="s">
+        <v>45</v>
+      </c>
+      <c r="U37" t="s">
+        <v>45</v>
+      </c>
+      <c r="V37" t="s">
+        <v>45</v>
+      </c>
+      <c r="W37" t="s">
+        <v>45</v>
+      </c>
+      <c r="X37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH37">
+        <v>8</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" t="s">
+        <v>46</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M38" t="s">
+        <v>45</v>
+      </c>
+      <c r="N38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" t="s">
+        <v>45</v>
+      </c>
+      <c r="P38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>45</v>
+      </c>
+      <c r="R38" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" t="s">
+        <v>45</v>
+      </c>
+      <c r="T38" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38" t="s">
+        <v>45</v>
+      </c>
+      <c r="V38" t="s">
+        <v>45</v>
+      </c>
+      <c r="W38" t="s">
+        <v>45</v>
+      </c>
+      <c r="X38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH38">
+        <v>8</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" t="s">
+        <v>45</v>
+      </c>
+      <c r="L39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" t="s">
+        <v>45</v>
+      </c>
+      <c r="N39" t="s">
+        <v>45</v>
+      </c>
+      <c r="O39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" t="s">
+        <v>45</v>
+      </c>
+      <c r="X39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH39">
+        <v>5</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>5</v>
+      </c>
+      <c r="AK39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" t="s">
+        <v>45</v>
+      </c>
+      <c r="L40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M40" t="s">
+        <v>45</v>
+      </c>
+      <c r="N40" t="s">
+        <v>45</v>
+      </c>
+      <c r="O40" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>45</v>
+      </c>
+      <c r="R40" t="s">
+        <v>45</v>
+      </c>
+      <c r="S40" t="s">
+        <v>45</v>
+      </c>
+      <c r="T40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" t="s">
+        <v>45</v>
+      </c>
+      <c r="V40" t="s">
+        <v>45</v>
+      </c>
+      <c r="W40" t="s">
+        <v>45</v>
+      </c>
+      <c r="X40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH40">
+        <v>7</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" t="s">
+        <v>45</v>
+      </c>
+      <c r="M41" t="s">
+        <v>45</v>
+      </c>
+      <c r="N41" t="s">
+        <v>45</v>
+      </c>
+      <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>45</v>
+      </c>
+      <c r="R41" t="s">
+        <v>45</v>
+      </c>
+      <c r="S41" t="s">
+        <v>45</v>
+      </c>
+      <c r="T41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>45</v>
+      </c>
+      <c r="V41" t="s">
+        <v>45</v>
+      </c>
+      <c r="W41" t="s">
+        <v>45</v>
+      </c>
+      <c r="X41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH41">
+        <v>9</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" t="s">
+        <v>45</v>
+      </c>
+      <c r="L42" t="s">
+        <v>45</v>
+      </c>
+      <c r="M42" t="s">
+        <v>45</v>
+      </c>
+      <c r="N42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" t="s">
+        <v>45</v>
+      </c>
+      <c r="T42" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" t="s">
+        <v>45</v>
+      </c>
+      <c r="W42" t="s">
+        <v>45</v>
+      </c>
+      <c r="X42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH42">
+        <v>8</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>46</v>
+      </c>
+      <c r="J43" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43" t="s">
+        <v>45</v>
+      </c>
+      <c r="M43" t="s">
+        <v>45</v>
+      </c>
+      <c r="N43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" t="s">
+        <v>45</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>45</v>
+      </c>
+      <c r="R43" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" t="s">
+        <v>45</v>
+      </c>
+      <c r="U43" t="s">
+        <v>45</v>
+      </c>
+      <c r="V43" t="s">
+        <v>45</v>
+      </c>
+      <c r="W43" t="s">
+        <v>45</v>
+      </c>
+      <c r="X43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH43">
+        <v>9</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" t="s">
+        <v>45</v>
+      </c>
+      <c r="L44" t="s">
+        <v>45</v>
+      </c>
+      <c r="M44" t="s">
+        <v>45</v>
+      </c>
+      <c r="N44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" t="s">
+        <v>45</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R44" t="s">
+        <v>45</v>
+      </c>
+      <c r="S44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T44" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V44" t="s">
+        <v>45</v>
+      </c>
+      <c r="W44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH44">
+        <v>4</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L45" t="s">
+        <v>45</v>
+      </c>
+      <c r="M45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N45" t="s">
+        <v>45</v>
+      </c>
+      <c r="O45" t="s">
+        <v>45</v>
+      </c>
+      <c r="P45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" t="s">
+        <v>45</v>
+      </c>
+      <c r="S45" t="s">
+        <v>45</v>
+      </c>
+      <c r="T45" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" t="s">
+        <v>45</v>
+      </c>
+      <c r="V45" t="s">
+        <v>45</v>
+      </c>
+      <c r="W45" t="s">
+        <v>45</v>
+      </c>
+      <c r="X45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH45">
+        <v>5</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M46" t="s">
+        <v>45</v>
+      </c>
+      <c r="N46" t="s">
+        <v>45</v>
+      </c>
+      <c r="O46" t="s">
+        <v>45</v>
+      </c>
+      <c r="P46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>45</v>
+      </c>
+      <c r="R46" t="s">
+        <v>45</v>
+      </c>
+      <c r="S46" t="s">
+        <v>45</v>
+      </c>
+      <c r="T46" t="s">
+        <v>45</v>
+      </c>
+      <c r="U46" t="s">
+        <v>45</v>
+      </c>
+      <c r="V46" t="s">
+        <v>45</v>
+      </c>
+      <c r="W46" t="s">
+        <v>45</v>
+      </c>
+      <c r="X46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH46">
+        <v>7</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" t="s">
+        <v>46</v>
+      </c>
+      <c r="L47" t="s">
+        <v>45</v>
+      </c>
+      <c r="M47" t="s">
+        <v>45</v>
+      </c>
+      <c r="N47" t="s">
+        <v>45</v>
+      </c>
+      <c r="O47" t="s">
+        <v>45</v>
+      </c>
+      <c r="P47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>45</v>
+      </c>
+      <c r="R47" t="s">
+        <v>45</v>
+      </c>
+      <c r="S47" t="s">
+        <v>45</v>
+      </c>
+      <c r="T47" t="s">
+        <v>45</v>
+      </c>
+      <c r="U47" t="s">
+        <v>45</v>
+      </c>
+      <c r="V47" t="s">
+        <v>45</v>
+      </c>
+      <c r="W47" t="s">
+        <v>45</v>
+      </c>
+      <c r="X47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH47">
+        <v>8</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48" t="s">
+        <v>45</v>
+      </c>
+      <c r="M48" t="s">
+        <v>45</v>
+      </c>
+      <c r="N48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" t="s">
+        <v>45</v>
+      </c>
+      <c r="P48" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" t="s">
+        <v>45</v>
+      </c>
+      <c r="S48" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" t="s">
+        <v>45</v>
+      </c>
+      <c r="U48" t="s">
+        <v>45</v>
+      </c>
+      <c r="V48" t="s">
+        <v>45</v>
+      </c>
+      <c r="W48" t="s">
+        <v>45</v>
+      </c>
+      <c r="X48" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH48">
+        <v>8</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>8</v>
+      </c>
+      <c r="AK48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" t="s">
+        <v>46</v>
+      </c>
+      <c r="L49" t="s">
+        <v>45</v>
+      </c>
+      <c r="M49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N49" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" t="s">
+        <v>45</v>
+      </c>
+      <c r="P49" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>45</v>
+      </c>
+      <c r="R49" t="s">
+        <v>45</v>
+      </c>
+      <c r="S49" t="s">
+        <v>45</v>
+      </c>
+      <c r="T49" t="s">
+        <v>45</v>
+      </c>
+      <c r="U49" t="s">
+        <v>45</v>
+      </c>
+      <c r="V49" t="s">
+        <v>45</v>
+      </c>
+      <c r="W49" t="s">
+        <v>45</v>
+      </c>
+      <c r="X49" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH49">
+        <v>6</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J50" t="s">
+        <v>48</v>
+      </c>
+      <c r="K50" t="s">
+        <v>45</v>
+      </c>
+      <c r="L50" t="s">
+        <v>45</v>
+      </c>
+      <c r="M50" t="s">
+        <v>45</v>
+      </c>
+      <c r="N50" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50" t="s">
+        <v>45</v>
+      </c>
+      <c r="P50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>45</v>
+      </c>
+      <c r="R50" t="s">
+        <v>45</v>
+      </c>
+      <c r="S50" t="s">
+        <v>45</v>
+      </c>
+      <c r="T50" t="s">
+        <v>45</v>
+      </c>
+      <c r="U50" t="s">
+        <v>45</v>
+      </c>
+      <c r="V50" t="s">
+        <v>45</v>
+      </c>
+      <c r="W50" t="s">
+        <v>45</v>
+      </c>
+      <c r="X50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
